--- a/Agile Documentation/Agile Document.xlsx
+++ b/Agile Documentation/Agile Document.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Infosys\project\GIThub contents\Agile Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7400D4FC-2FAE-458E-BD6B-B367BD4636B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D33CDA-1E56-4EA2-956B-3D7DF8ECC230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="775" xr2:uid="{B70CAE92-3E47-4545-B5F2-FE84B7205EAE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="775" activeTab="3" xr2:uid="{B70CAE92-3E47-4545-B5F2-FE84B7205EAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="52" r:id="rId1"/>
@@ -781,7 +781,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="[$-1009]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1706,11 +1706,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.44140625" customWidth="1"/>
     <col min="4" max="4" width="94.109375" customWidth="1"/>
@@ -1720,7 +1720,7 @@
     <col min="8" max="8" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="75.75" customHeight="1">
+    <row r="1" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>22</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="40.200000000000003" customHeight="1">
+    <row r="2" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>74</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="37.200000000000003" customHeight="1">
+    <row r="3" spans="1:8" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>74</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="31.8" customHeight="1">
+    <row r="4" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>74</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="37.200000000000003" customHeight="1">
+    <row r="5" spans="1:8" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>74</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="36" customHeight="1">
+    <row r="6" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>77</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="35.4" customHeight="1">
+    <row r="7" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>81</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="37.799999999999997" customHeight="1">
+    <row r="8" spans="1:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>83</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="32.4" customHeight="1">
+    <row r="9" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>84</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.8" customHeight="1">
+    <row r="10" spans="1:8" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>85</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="36" customHeight="1">
+    <row r="11" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>87</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="36" customHeight="1">
+    <row r="12" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>89</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.8">
+    <row r="13" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="45"/>
       <c r="B13" s="45"/>
       <c r="C13" s="46"/>
@@ -2042,7 +2042,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" ht="13.8">
+    <row r="14" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B14" s="45"/>
       <c r="C14" s="46"/>
       <c r="D14" s="47"/>
@@ -2051,7 +2051,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" ht="13.8">
+    <row r="15" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="45"/>
       <c r="C15" s="46"/>
@@ -2061,7 +2061,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" ht="13.8">
+    <row r="16" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="45"/>
       <c r="C16" s="46"/>
@@ -2071,7 +2071,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="49"/>
       <c r="B17" s="49"/>
       <c r="D17" s="50"/>
@@ -2080,7 +2080,7 @@
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="49"/>
       <c r="B18" s="49"/>
       <c r="D18" s="52"/>
@@ -2089,7 +2089,7 @@
       <c r="G18" s="51"/>
       <c r="H18" s="51"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="49"/>
       <c r="B19" s="49"/>
       <c r="D19" s="50"/>
@@ -2098,7 +2098,7 @@
       <c r="G19" s="51"/>
       <c r="H19" s="51"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="49"/>
       <c r="B20" s="49"/>
       <c r="D20" s="50"/>
@@ -2107,7 +2107,7 @@
       <c r="G20" s="51"/>
       <c r="H20" s="51"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="49"/>
       <c r="B21" s="49"/>
       <c r="D21" s="50"/>
@@ -2116,7 +2116,7 @@
       <c r="G21" s="51"/>
       <c r="H21" s="51"/>
     </row>
-    <row r="22" spans="1:8" ht="13.8">
+    <row r="22" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="49"/>
       <c r="B22" s="49"/>
       <c r="D22" s="45"/>
@@ -2125,7 +2125,7 @@
       <c r="G22" s="51"/>
       <c r="H22" s="51"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="49"/>
       <c r="B23" s="49"/>
       <c r="D23" s="50"/>
@@ -2134,7 +2134,7 @@
       <c r="G23" s="51"/>
       <c r="H23" s="51"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="49"/>
       <c r="B24" s="49"/>
       <c r="D24" s="50"/>
@@ -2143,7 +2143,7 @@
       <c r="G24" s="51"/>
       <c r="H24" s="51"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="49"/>
       <c r="B25" s="49"/>
       <c r="D25" s="50"/>
@@ -2152,7 +2152,7 @@
       <c r="G25" s="51"/>
       <c r="H25" s="51"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="49"/>
       <c r="B26" s="49"/>
       <c r="D26" s="52"/>
@@ -2161,7 +2161,7 @@
       <c r="G26" s="51"/>
       <c r="H26" s="51"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="49"/>
       <c r="B27" s="49"/>
       <c r="D27" s="50"/>
@@ -2170,7 +2170,7 @@
       <c r="G27" s="51"/>
       <c r="H27" s="51"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="49"/>
       <c r="B28" s="49"/>
       <c r="D28" s="50"/>
@@ -2179,7 +2179,7 @@
       <c r="G28" s="51"/>
       <c r="H28" s="51"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="49"/>
       <c r="B29" s="49"/>
       <c r="D29" s="50"/>
@@ -2188,7 +2188,7 @@
       <c r="G29" s="51"/>
       <c r="H29" s="51"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="D30" s="52"/>
@@ -2197,7 +2197,7 @@
       <c r="G30" s="51"/>
       <c r="H30" s="51"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="49"/>
       <c r="B31" s="49"/>
       <c r="D31" s="50"/>
@@ -2206,7 +2206,7 @@
       <c r="G31" s="51"/>
       <c r="H31" s="51"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="49"/>
       <c r="B32" s="49"/>
       <c r="D32" s="50"/>
@@ -2215,7 +2215,7 @@
       <c r="G32" s="51"/>
       <c r="H32" s="51"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="49"/>
       <c r="B33" s="49"/>
       <c r="D33" s="50"/>
@@ -2224,7 +2224,7 @@
       <c r="G33" s="51"/>
       <c r="H33" s="51"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="49"/>
       <c r="B34" s="49"/>
       <c r="D34" s="52"/>
@@ -2233,7 +2233,7 @@
       <c r="G34" s="51"/>
       <c r="H34" s="51"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="49"/>
       <c r="B35" s="49"/>
       <c r="D35" s="50"/>
@@ -2242,7 +2242,7 @@
       <c r="G35" s="51"/>
       <c r="H35" s="51"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
       <c r="D36" s="50"/>
@@ -2251,7 +2251,7 @@
       <c r="G36" s="51"/>
       <c r="H36" s="51"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="49"/>
       <c r="B37" s="49"/>
       <c r="D37" s="50"/>
@@ -2260,7 +2260,7 @@
       <c r="G37" s="51"/>
       <c r="H37" s="51"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="49"/>
       <c r="B38" s="49"/>
       <c r="D38" s="52"/>
@@ -2269,7 +2269,7 @@
       <c r="G38" s="51"/>
       <c r="H38" s="51"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="49"/>
       <c r="B39" s="49"/>
       <c r="D39" s="50"/>
@@ -2278,7 +2278,7 @@
       <c r="G39" s="51"/>
       <c r="H39" s="51"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="49"/>
       <c r="B40" s="49"/>
       <c r="D40" s="50"/>
@@ -2287,7 +2287,7 @@
       <c r="G40" s="51"/>
       <c r="H40" s="51"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="49"/>
       <c r="B41" s="49"/>
       <c r="D41" s="50"/>
@@ -2296,7 +2296,7 @@
       <c r="G41" s="51"/>
       <c r="H41" s="51"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="49"/>
       <c r="B42" s="49"/>
       <c r="D42" s="52"/>
@@ -2305,7 +2305,7 @@
       <c r="G42" s="51"/>
       <c r="H42" s="51"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="49"/>
       <c r="B43" s="49"/>
       <c r="D43" s="52"/>
@@ -2314,7 +2314,7 @@
       <c r="G43" s="51"/>
       <c r="H43" s="51"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="49"/>
       <c r="B44" s="49"/>
       <c r="D44" s="50"/>
@@ -2323,7 +2323,7 @@
       <c r="G44" s="51"/>
       <c r="H44" s="51"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="49"/>
       <c r="B45" s="49"/>
       <c r="D45" s="50"/>
@@ -2332,7 +2332,7 @@
       <c r="G45" s="51"/>
       <c r="H45" s="51"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="49"/>
       <c r="B46" s="49"/>
       <c r="D46" s="50"/>
@@ -2341,7 +2341,7 @@
       <c r="G46" s="51"/>
       <c r="H46" s="51"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="49"/>
       <c r="B47" s="49"/>
       <c r="D47" s="52"/>
@@ -2350,7 +2350,7 @@
       <c r="G47" s="51"/>
       <c r="H47" s="51"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="49"/>
       <c r="B48" s="49"/>
       <c r="D48" s="52"/>
@@ -2359,7 +2359,7 @@
       <c r="G48" s="51"/>
       <c r="H48" s="51"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="49"/>
       <c r="B49" s="49"/>
       <c r="D49" s="50"/>
@@ -2368,7 +2368,7 @@
       <c r="G49" s="51"/>
       <c r="H49" s="51"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="49"/>
       <c r="B50" s="49"/>
       <c r="D50" s="50"/>
@@ -2401,7 +2401,7 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="9" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="15" customWidth="1"/>
@@ -2418,7 +2418,7 @@
     <col min="13" max="16384" width="9.109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:23" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>27</v>
       </c>
@@ -2445,7 +2445,7 @@
       <c r="V1" s="27"/>
       <c r="W1" s="28"/>
     </row>
-    <row r="2" spans="1:23" s="10" customFormat="1" ht="45.75" customHeight="1">
+    <row r="2" spans="1:23" s="10" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="87" t="s">
         <v>1</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="10" customFormat="1" ht="30" customHeight="1">
+    <row r="3" spans="1:23" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="88"/>
       <c r="B3" s="86"/>
       <c r="C3" s="84"/>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="10" customFormat="1" ht="33.75" customHeight="1">
+    <row r="4" spans="1:23" s="10" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="89" t="s">
         <v>26</v>
       </c>
@@ -2613,7 +2613,7 @@
       <c r="V4" s="89"/>
       <c r="W4" s="89"/>
     </row>
-    <row r="5" spans="1:23" ht="24.75" customHeight="1">
+    <row r="5" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">
         <v>62</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="24.75" customHeight="1">
+    <row r="6" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
         <v>62</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="24" customHeight="1">
+    <row r="7" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="42" t="s">
         <v>62</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="27" customHeight="1">
+    <row r="8" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="42" t="s">
         <v>62</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="27" customHeight="1">
+    <row r="9" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="42" t="s">
         <v>62</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="26.4" customHeight="1">
+    <row r="10" spans="1:23" ht="26.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="42" t="s">
         <v>62</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="25.8" customHeight="1">
+    <row r="11" spans="1:23" ht="25.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
         <v>62</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="26.4" customHeight="1">
+    <row r="12" spans="1:23" ht="26.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="42" t="s">
         <v>62</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="28.8" customHeight="1">
+    <row r="13" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="42" t="s">
         <v>62</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="29.25" customHeight="1">
+    <row r="14" spans="1:23" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
         <v>62</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="27" customHeight="1">
+    <row r="15" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="42" t="s">
         <v>62</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="36.75" customHeight="1">
+    <row r="16" spans="1:23" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55"/>
       <c r="B16" s="56"/>
       <c r="C16" s="56"/>
@@ -3419,7 +3419,7 @@
       <c r="V16" s="59"/>
       <c r="W16" s="59"/>
     </row>
-    <row r="17" spans="1:23" ht="34.5" customHeight="1">
+    <row r="17" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="55"/>
       <c r="B17" s="56"/>
       <c r="C17" s="56"/>
@@ -3444,7 +3444,7 @@
       <c r="V17" s="59"/>
       <c r="W17" s="59"/>
     </row>
-    <row r="18" spans="1:23" ht="42" customHeight="1">
+    <row r="18" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="55"/>
       <c r="B18" s="56"/>
       <c r="C18" s="56"/>
@@ -3469,7 +3469,7 @@
       <c r="V18" s="59"/>
       <c r="W18" s="59"/>
     </row>
-    <row r="19" spans="1:23" ht="39.75" customHeight="1">
+    <row r="19" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="55"/>
       <c r="B19" s="56"/>
       <c r="C19" s="56"/>
@@ -3494,7 +3494,7 @@
       <c r="V19" s="59"/>
       <c r="W19" s="59"/>
     </row>
-    <row r="20" spans="1:23" ht="26.25" customHeight="1">
+    <row r="20" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="55"/>
       <c r="B20" s="56"/>
       <c r="C20" s="56"/>
@@ -3519,7 +3519,7 @@
       <c r="V20" s="59"/>
       <c r="W20" s="59"/>
     </row>
-    <row r="21" spans="1:23" ht="23.25" customHeight="1">
+    <row r="21" spans="1:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="55"/>
       <c r="B21" s="56"/>
       <c r="C21" s="56"/>
@@ -3544,7 +3544,7 @@
       <c r="V21" s="59"/>
       <c r="W21" s="59"/>
     </row>
-    <row r="22" spans="1:23" ht="24" customHeight="1">
+    <row r="22" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="55"/>
       <c r="B22" s="56"/>
       <c r="C22" s="56"/>
@@ -3569,7 +3569,7 @@
       <c r="V22" s="59"/>
       <c r="W22" s="59"/>
     </row>
-    <row r="23" spans="1:23" ht="24" customHeight="1">
+    <row r="23" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="55"/>
       <c r="B23" s="56"/>
       <c r="C23" s="56"/>
@@ -3594,7 +3594,7 @@
       <c r="V23" s="59"/>
       <c r="W23" s="59"/>
     </row>
-    <row r="24" spans="1:23" ht="24" customHeight="1">
+    <row r="24" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="55"/>
       <c r="B24" s="56"/>
       <c r="C24" s="56"/>
@@ -3619,7 +3619,7 @@
       <c r="V24" s="59"/>
       <c r="W24" s="59"/>
     </row>
-    <row r="25" spans="1:23" ht="24" customHeight="1">
+    <row r="25" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="55"/>
       <c r="B25" s="56"/>
       <c r="C25" s="56"/>
@@ -3644,7 +3644,7 @@
       <c r="V25" s="59"/>
       <c r="W25" s="59"/>
     </row>
-    <row r="26" spans="1:23" ht="24" customHeight="1">
+    <row r="26" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55"/>
       <c r="B26" s="57"/>
       <c r="C26" s="60"/>
@@ -3669,7 +3669,7 @@
       <c r="V26" s="59"/>
       <c r="W26" s="59"/>
     </row>
-    <row r="27" spans="1:23" ht="24" customHeight="1">
+    <row r="27" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55"/>
       <c r="B27" s="57"/>
       <c r="C27" s="60"/>
@@ -3694,7 +3694,7 @@
       <c r="V27" s="59"/>
       <c r="W27" s="59"/>
     </row>
-    <row r="28" spans="1:23" ht="29.25" customHeight="1">
+    <row r="28" spans="1:23" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55"/>
       <c r="B28" s="57"/>
       <c r="C28" s="60" t="s">
@@ -3721,7 +3721,7 @@
       <c r="V28" s="59"/>
       <c r="W28" s="59"/>
     </row>
-    <row r="29" spans="1:23" ht="20.25" customHeight="1">
+    <row r="29" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55"/>
       <c r="B29" s="57"/>
       <c r="C29" s="60" t="s">
@@ -3748,7 +3748,7 @@
       <c r="V29" s="59"/>
       <c r="W29" s="59"/>
     </row>
-    <row r="30" spans="1:23" ht="20.25" customHeight="1">
+    <row r="30" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55"/>
       <c r="B30" s="57"/>
       <c r="C30" s="60"/>
@@ -3773,7 +3773,7 @@
       <c r="V30" s="59"/>
       <c r="W30" s="59"/>
     </row>
-    <row r="31" spans="1:23" ht="20.25" customHeight="1">
+    <row r="31" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55"/>
       <c r="B31" s="57"/>
       <c r="C31" s="60"/>
@@ -3798,7 +3798,7 @@
       <c r="V31" s="59"/>
       <c r="W31" s="59"/>
     </row>
-    <row r="32" spans="1:23" ht="20.25" customHeight="1">
+    <row r="32" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55"/>
       <c r="B32" s="57"/>
       <c r="C32" s="60"/>
@@ -3823,7 +3823,7 @@
       <c r="V32" s="59"/>
       <c r="W32" s="59"/>
     </row>
-    <row r="33" spans="1:23" ht="20.25" customHeight="1">
+    <row r="33" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55"/>
       <c r="B33" s="57"/>
       <c r="C33" s="60"/>
@@ -3848,7 +3848,7 @@
       <c r="V33" s="59"/>
       <c r="W33" s="59"/>
     </row>
-    <row r="34" spans="1:23" ht="14.25" customHeight="1">
+    <row r="34" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55"/>
       <c r="B34" s="57"/>
       <c r="C34" s="60" t="s">
@@ -3875,7 +3875,7 @@
       <c r="V34" s="59"/>
       <c r="W34" s="59"/>
     </row>
-    <row r="35" spans="1:23" ht="21" customHeight="1">
+    <row r="35" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55"/>
       <c r="B35" s="57"/>
       <c r="C35" s="60" t="s">
@@ -3902,7 +3902,7 @@
       <c r="V35" s="59"/>
       <c r="W35" s="59"/>
     </row>
-    <row r="36" spans="1:23" ht="21.75" customHeight="1">
+    <row r="36" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55"/>
       <c r="B36" s="57"/>
       <c r="C36" s="60" t="s">
@@ -3929,7 +3929,7 @@
       <c r="V36" s="59"/>
       <c r="W36" s="59"/>
     </row>
-    <row r="37" spans="1:23" ht="21.75" customHeight="1">
+    <row r="37" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55"/>
       <c r="B37" s="57"/>
       <c r="C37" s="60"/>
@@ -3954,7 +3954,7 @@
       <c r="V37" s="59"/>
       <c r="W37" s="59"/>
     </row>
-    <row r="38" spans="1:23" ht="21.75" customHeight="1">
+    <row r="38" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55"/>
       <c r="B38" s="57"/>
       <c r="C38" s="60"/>
@@ -3979,7 +3979,7 @@
       <c r="V38" s="59"/>
       <c r="W38" s="59"/>
     </row>
-    <row r="39" spans="1:23" ht="21.75" customHeight="1">
+    <row r="39" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55"/>
       <c r="B39" s="57"/>
       <c r="C39" s="60"/>
@@ -4004,7 +4004,7 @@
       <c r="V39" s="59"/>
       <c r="W39" s="59"/>
     </row>
-    <row r="40" spans="1:23" ht="21.75" customHeight="1">
+    <row r="40" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55"/>
       <c r="B40" s="57"/>
       <c r="C40" s="60"/>
@@ -4029,7 +4029,7 @@
       <c r="V40" s="59"/>
       <c r="W40" s="59"/>
     </row>
-    <row r="41" spans="1:23" ht="21" customHeight="1">
+    <row r="41" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55"/>
       <c r="B41" s="57"/>
       <c r="C41" s="60" t="s">
@@ -4056,7 +4056,7 @@
       <c r="V41" s="59"/>
       <c r="W41" s="59"/>
     </row>
-    <row r="42" spans="1:23" ht="19.5" customHeight="1">
+    <row r="42" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55"/>
       <c r="B42" s="57"/>
       <c r="C42" s="60" t="s">
@@ -4083,7 +4083,7 @@
       <c r="V42" s="59"/>
       <c r="W42" s="59"/>
     </row>
-    <row r="43" spans="1:23" ht="17.25" customHeight="1">
+    <row r="43" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="55"/>
       <c r="B43" s="57"/>
       <c r="C43" s="60" t="s">
@@ -4110,7 +4110,7 @@
       <c r="V43" s="59"/>
       <c r="W43" s="59"/>
     </row>
-    <row r="44" spans="1:23" ht="17.25" customHeight="1">
+    <row r="44" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="55"/>
       <c r="B44" s="57"/>
       <c r="C44" s="60"/>
@@ -4135,7 +4135,7 @@
       <c r="V44" s="59"/>
       <c r="W44" s="59"/>
     </row>
-    <row r="45" spans="1:23" ht="17.25" customHeight="1">
+    <row r="45" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="55"/>
       <c r="B45" s="57"/>
       <c r="C45" s="60"/>
@@ -4160,7 +4160,7 @@
       <c r="V45" s="59"/>
       <c r="W45" s="59"/>
     </row>
-    <row r="46" spans="1:23" ht="17.25" customHeight="1">
+    <row r="46" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="55"/>
       <c r="B46" s="57"/>
       <c r="C46" s="60"/>
@@ -4185,7 +4185,7 @@
       <c r="V46" s="59"/>
       <c r="W46" s="59"/>
     </row>
-    <row r="47" spans="1:23" ht="17.25" customHeight="1">
+    <row r="47" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="55"/>
       <c r="B47" s="57"/>
       <c r="C47" s="60"/>
@@ -4210,7 +4210,7 @@
       <c r="V47" s="59"/>
       <c r="W47" s="59"/>
     </row>
-    <row r="48" spans="1:23" ht="15.75" customHeight="1">
+    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="55"/>
       <c r="B48" s="57"/>
       <c r="C48" s="60" t="s">
@@ -4237,7 +4237,7 @@
       <c r="V48" s="59"/>
       <c r="W48" s="59"/>
     </row>
-    <row r="49" spans="1:23" ht="18.75" customHeight="1">
+    <row r="49" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="55"/>
       <c r="B49" s="57"/>
       <c r="C49" s="60" t="s">
@@ -4264,7 +4264,7 @@
       <c r="V49" s="59"/>
       <c r="W49" s="59"/>
     </row>
-    <row r="50" spans="1:23" ht="19.5" customHeight="1">
+    <row r="50" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="55"/>
       <c r="B50" s="57"/>
       <c r="C50" s="60" t="s">
@@ -4291,7 +4291,7 @@
       <c r="V50" s="59"/>
       <c r="W50" s="59"/>
     </row>
-    <row r="51" spans="1:23" ht="19.5" customHeight="1">
+    <row r="51" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="55"/>
       <c r="B51" s="57"/>
       <c r="C51" s="60"/>
@@ -4316,7 +4316,7 @@
       <c r="V51" s="59"/>
       <c r="W51" s="59"/>
     </row>
-    <row r="52" spans="1:23" ht="19.5" customHeight="1">
+    <row r="52" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="55"/>
       <c r="B52" s="57"/>
       <c r="C52" s="60"/>
@@ -4341,7 +4341,7 @@
       <c r="V52" s="59"/>
       <c r="W52" s="59"/>
     </row>
-    <row r="53" spans="1:23" ht="19.5" customHeight="1">
+    <row r="53" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="55"/>
       <c r="B53" s="57"/>
       <c r="C53" s="60"/>
@@ -4366,7 +4366,7 @@
       <c r="V53" s="59"/>
       <c r="W53" s="59"/>
     </row>
-    <row r="54" spans="1:23" ht="19.5" customHeight="1">
+    <row r="54" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="55"/>
       <c r="B54" s="57"/>
       <c r="C54" s="60"/>
@@ -4391,7 +4391,7 @@
       <c r="V54" s="59"/>
       <c r="W54" s="59"/>
     </row>
-    <row r="55" spans="1:23" ht="20.25" customHeight="1">
+    <row r="55" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="55"/>
       <c r="B55" s="57"/>
       <c r="C55" s="60" t="s">
@@ -4418,7 +4418,7 @@
       <c r="V55" s="59"/>
       <c r="W55" s="59"/>
     </row>
-    <row r="56" spans="1:23" ht="18" customHeight="1">
+    <row r="56" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="55"/>
       <c r="B56" s="57"/>
       <c r="C56" s="60" t="s">
@@ -4445,7 +4445,7 @@
       <c r="V56" s="59"/>
       <c r="W56" s="59"/>
     </row>
-    <row r="57" spans="1:23" ht="17.25" customHeight="1">
+    <row r="57" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="55"/>
       <c r="B57" s="57"/>
       <c r="C57" s="60" t="s">
@@ -4472,7 +4472,7 @@
       <c r="V57" s="59"/>
       <c r="W57" s="59"/>
     </row>
-    <row r="58" spans="1:23" ht="17.25" customHeight="1">
+    <row r="58" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="55"/>
       <c r="B58" s="57"/>
       <c r="C58" s="60"/>
@@ -4497,7 +4497,7 @@
       <c r="V58" s="59"/>
       <c r="W58" s="59"/>
     </row>
-    <row r="59" spans="1:23" ht="17.25" customHeight="1">
+    <row r="59" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="55"/>
       <c r="B59" s="57"/>
       <c r="C59" s="60"/>
@@ -4522,7 +4522,7 @@
       <c r="V59" s="59"/>
       <c r="W59" s="59"/>
     </row>
-    <row r="60" spans="1:23" ht="17.25" customHeight="1">
+    <row r="60" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="55"/>
       <c r="B60" s="57"/>
       <c r="C60" s="60"/>
@@ -4547,7 +4547,7 @@
       <c r="V60" s="59"/>
       <c r="W60" s="59"/>
     </row>
-    <row r="61" spans="1:23" ht="17.25" customHeight="1">
+    <row r="61" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="55"/>
       <c r="B61" s="57"/>
       <c r="C61" s="60"/>
@@ -4572,7 +4572,7 @@
       <c r="V61" s="59"/>
       <c r="W61" s="59"/>
     </row>
-    <row r="62" spans="1:23" ht="18.75" customHeight="1">
+    <row r="62" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="55"/>
       <c r="B62" s="57"/>
       <c r="C62" s="60" t="s">
@@ -4599,7 +4599,7 @@
       <c r="V62" s="59"/>
       <c r="W62" s="59"/>
     </row>
-    <row r="63" spans="1:23" ht="18.75" customHeight="1">
+    <row r="63" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="55"/>
       <c r="B63" s="57"/>
       <c r="C63" s="60" t="s">
@@ -4626,7 +4626,7 @@
       <c r="V63" s="59"/>
       <c r="W63" s="59"/>
     </row>
-    <row r="64" spans="1:23" ht="18.75" customHeight="1">
+    <row r="64" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="55"/>
       <c r="B64" s="57"/>
       <c r="C64" s="60"/>
@@ -4651,7 +4651,7 @@
       <c r="V64" s="59"/>
       <c r="W64" s="59"/>
     </row>
-    <row r="65" spans="1:23" ht="18.75" customHeight="1">
+    <row r="65" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="55"/>
       <c r="B65" s="57"/>
       <c r="C65" s="60"/>
@@ -4676,7 +4676,7 @@
       <c r="V65" s="59"/>
       <c r="W65" s="59"/>
     </row>
-    <row r="66" spans="1:23" ht="18.75" customHeight="1">
+    <row r="66" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="55"/>
       <c r="B66" s="57"/>
       <c r="C66" s="60"/>
@@ -4701,7 +4701,7 @@
       <c r="V66" s="59"/>
       <c r="W66" s="59"/>
     </row>
-    <row r="67" spans="1:23" ht="18" customHeight="1">
+    <row r="67" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="55"/>
       <c r="B67" s="57"/>
       <c r="C67" s="60" t="s">
@@ -4728,7 +4728,7 @@
       <c r="V67" s="59"/>
       <c r="W67" s="59"/>
     </row>
-    <row r="68" spans="1:23" ht="18" customHeight="1">
+    <row r="68" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="55"/>
       <c r="B68" s="57"/>
       <c r="C68" s="60"/>
@@ -4753,7 +4753,7 @@
       <c r="V68" s="59"/>
       <c r="W68" s="59"/>
     </row>
-    <row r="69" spans="1:23" ht="24" customHeight="1">
+    <row r="69" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="55"/>
       <c r="B69" s="57"/>
       <c r="C69" s="60" t="s">
@@ -4780,7 +4780,7 @@
       <c r="V69" s="59"/>
       <c r="W69" s="59"/>
     </row>
-    <row r="70" spans="1:23" ht="24" customHeight="1">
+    <row r="70" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
       <c r="B70" s="57"/>
       <c r="C70" s="60"/>
@@ -4794,25 +4794,25 @@
       <c r="K70" s="59"/>
       <c r="L70" s="59"/>
     </row>
-    <row r="72" spans="1:23" ht="53.25" customHeight="1"/>
-    <row r="73" spans="1:23" ht="42" customHeight="1"/>
-    <row r="74" spans="1:23" ht="42" customHeight="1"/>
-    <row r="75" spans="1:23" ht="21.75" customHeight="1"/>
-    <row r="76" spans="1:23" ht="18.75" customHeight="1"/>
-    <row r="77" spans="1:23" ht="21.75" customHeight="1"/>
-    <row r="78" spans="1:23" ht="18.75" customHeight="1"/>
-    <row r="79" spans="1:23" ht="18" customHeight="1"/>
-    <row r="80" spans="1:23" ht="21" customHeight="1"/>
-    <row r="81" ht="16.5" customHeight="1"/>
-    <row r="82" ht="19.5" customHeight="1"/>
-    <row r="83" ht="19.5" customHeight="1"/>
-    <row r="84" ht="18.75" customHeight="1"/>
-    <row r="85" ht="11.25" customHeight="1"/>
-    <row r="86" ht="11.25" customHeight="1"/>
-    <row r="103" ht="17.25" customHeight="1"/>
-    <row r="104" ht="21" customHeight="1"/>
-    <row r="105" ht="21" customHeight="1"/>
-    <row r="106" ht="22.5" customHeight="1"/>
+    <row r="72" spans="1:23" ht="53.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection password="E403" sheet="1" objects="1" scenarios="1" formatCells="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <dataConsolidate/>
@@ -4866,12 +4866,12 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="128" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.88671875" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" customWidth="1"/>
@@ -4880,7 +4880,7 @@
     <col min="5" max="5" width="33.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="49.5" customHeight="1">
+    <row r="1" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>30</v>
       </c>
@@ -4897,7 +4897,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="33.6" customHeight="1">
+    <row r="2" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
         <v>92</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="33" customHeight="1">
+    <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>93</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.4" customHeight="1">
+    <row r="4" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="s">
         <v>94</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="34.799999999999997" customHeight="1">
+    <row r="5" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="64" t="s">
         <v>95</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="36" customHeight="1">
+    <row r="6" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="64" t="s">
         <v>97</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="34.200000000000003" customHeight="1">
+    <row r="7" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="64" t="s">
         <v>98</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="35.4" customHeight="1">
+    <row r="8" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
         <v>100</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="34.799999999999997" customHeight="1">
+    <row r="9" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="71" t="s">
         <v>101</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.4" customHeight="1">
+    <row r="10" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="72"/>
     </row>
   </sheetData>
@@ -5023,11 +5023,11 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.21875" style="3" customWidth="1"/>
@@ -5042,7 +5042,7 @@
     <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="45.75" customHeight="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="74">
         <v>8</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="73"/>
       <c r="B10" s="72"/>
       <c r="C10" s="80"/>
@@ -5319,6 +5319,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F50FC49184C87E449886FB52439922C9" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85b7e58c3d8889ba0673e7b34a193a6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b67b99c0-208c-4860-83e0-51466af787c4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d43477c1ade21a66d9a75ba2d5aa042" ns2:_="">
     <xsd:import namespace="b67b99c0-208c-4860-83e0-51466af787c4"/>
@@ -5450,19 +5463,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5470,6 +5470,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70CF7EF0-982B-4AD0-BBEC-EE46AE901B4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03F37AD2-F175-417F-8B4C-43FA547649D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05F2658D-0A1D-482D-8A15-ACBD3F9F55F6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5487,22 +5503,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03F37AD2-F175-417F-8B4C-43FA547649D7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70CF7EF0-982B-4AD0-BBEC-EE46AE901B4A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4268A99-3466-42F2-ADC1-424A10F38D2D}">
   <ds:schemaRefs>

--- a/Agile Documentation/Agile Document.xlsx
+++ b/Agile Documentation/Agile Document.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Infosys\project\GIThub contents\Agile Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D33CDA-1E56-4EA2-956B-3D7DF8ECC230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2B72CB-B899-4986-8B0E-9795951AA6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="775" activeTab="3" xr2:uid="{B70CAE92-3E47-4545-B5F2-FE84B7205EAE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="775" activeTab="1" xr2:uid="{B70CAE92-3E47-4545-B5F2-FE84B7205EAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="52" r:id="rId1"/>
@@ -330,7 +330,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="146">
   <si>
     <t>Status</t>
   </si>
@@ -515,9 +515,6 @@
     <t>Integration Test</t>
   </si>
   <si>
-    <t>2- In Progress</t>
-  </si>
-  <si>
     <t>US-001</t>
   </si>
   <si>
@@ -605,9 +602,6 @@
     <t>Sqlite and Flask</t>
   </si>
   <si>
-    <t>Yet to be decided</t>
-  </si>
-  <si>
     <t>Sprint 1</t>
   </si>
   <si>
@@ -771,6 +765,9 @@
   </si>
   <si>
     <t>Done a dynamic Website for my model.</t>
+  </si>
+  <si>
+    <t>Render</t>
   </si>
 </sst>
 </file>
@@ -1706,8 +1703,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1748,22 +1745,22 @@
     </row>
     <row r="2" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="54" t="s">
         <v>45</v>
       </c>
       <c r="E2" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>75</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>76</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>54</v>
@@ -1774,22 +1771,22 @@
     </row>
     <row r="3" spans="1:8" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="44" t="s">
         <v>46</v>
       </c>
       <c r="E3" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>75</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>76</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>54</v>
@@ -1800,22 +1797,22 @@
     </row>
     <row r="4" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="44" t="s">
         <v>47</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G4" s="30" t="s">
         <v>54</v>
@@ -1826,22 +1823,22 @@
     </row>
     <row r="5" spans="1:8" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="44" t="s">
         <v>48</v>
       </c>
       <c r="E5" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="30" t="s">
         <v>79</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>80</v>
       </c>
       <c r="G5" s="30" t="s">
         <v>54</v>
@@ -1852,22 +1849,22 @@
     </row>
     <row r="6" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="44" t="s">
         <v>49</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" s="30" t="s">
         <v>54</v>
@@ -1878,22 +1875,22 @@
     </row>
     <row r="7" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="44" t="s">
         <v>50</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>54</v>
@@ -1904,22 +1901,22 @@
     </row>
     <row r="8" spans="1:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="44" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G8" s="30" t="s">
         <v>54</v>
@@ -1930,22 +1927,22 @@
     </row>
     <row r="9" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="44" t="s">
         <v>52</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G9" s="30" t="s">
         <v>54</v>
@@ -1956,22 +1953,22 @@
     </row>
     <row r="10" spans="1:8" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="44" t="s">
         <v>53</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G10" s="30" t="s">
         <v>54</v>
@@ -1982,22 +1979,22 @@
     </row>
     <row r="11" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G11" s="30" t="s">
         <v>54</v>
@@ -2008,28 +2005,28 @@
     </row>
     <row r="12" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>54</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
@@ -2397,8 +2394,8 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:W106"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -2615,10 +2612,10 @@
     </row>
     <row r="5" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="36" t="s">
         <v>62</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>63</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>45</v>
@@ -2686,10 +2683,10 @@
     </row>
     <row r="6" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>46</v>
@@ -2757,10 +2754,10 @@
     </row>
     <row r="7" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>47</v>
@@ -2828,10 +2825,10 @@
     </row>
     <row r="8" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>48</v>
@@ -2899,10 +2896,10 @@
     </row>
     <row r="9" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>49</v>
@@ -2970,10 +2967,10 @@
     </row>
     <row r="10" spans="1:23" ht="26.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>50</v>
@@ -3041,10 +3038,10 @@
     </row>
     <row r="11" spans="1:23" ht="25.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>51</v>
@@ -3112,10 +3109,10 @@
     </row>
     <row r="12" spans="1:23" ht="26.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>52</v>
@@ -3183,10 +3180,10 @@
     </row>
     <row r="13" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>53</v>
@@ -3254,13 +3251,13 @@
     </row>
     <row r="14" spans="1:23" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D14" s="61">
         <v>45672</v>
@@ -3325,13 +3322,13 @@
     </row>
     <row r="15" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D15" s="25">
         <v>45679</v>
@@ -3345,8 +3342,8 @@
       <c r="G15" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="40" t="s">
-        <v>61</v>
+      <c r="H15" s="37" t="s">
+        <v>56</v>
       </c>
       <c r="I15" s="38">
         <v>12</v>
@@ -4899,114 +4896,114 @@
     </row>
     <row r="2" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" s="64" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" s="64" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="64" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="64" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="64" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="71" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5023,7 +5020,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -5076,7 +5073,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C2" s="67">
         <v>45630</v>
@@ -5088,16 +5085,16 @@
         <v>54</v>
       </c>
       <c r="F2" s="69" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G2" s="66" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H2" s="70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I2" s="70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5105,7 +5102,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" s="67">
         <v>45637</v>
@@ -5117,16 +5114,16 @@
         <v>54</v>
       </c>
       <c r="F3" s="69" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="70" t="s">
-        <v>119</v>
-      </c>
       <c r="I3" s="70" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -5134,7 +5131,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4" s="67">
         <v>45644</v>
@@ -5146,16 +5143,16 @@
         <v>54</v>
       </c>
       <c r="F4" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4" s="70" t="s">
         <v>121</v>
-      </c>
-      <c r="G4" s="69" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="I4" s="70" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5163,7 +5160,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" s="67">
         <v>45651</v>
@@ -5175,16 +5172,16 @@
         <v>54</v>
       </c>
       <c r="F5" s="69" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G5" s="69" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H5" s="70" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I5" s="70" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -5192,7 +5189,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C6" s="67">
         <v>45658</v>
@@ -5204,16 +5201,16 @@
         <v>54</v>
       </c>
       <c r="F6" s="69" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G6" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="H6" s="70" t="s">
-        <v>126</v>
-      </c>
       <c r="I6" s="70" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -5221,7 +5218,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C7" s="67">
         <v>45665</v>
@@ -5233,16 +5230,16 @@
         <v>54</v>
       </c>
       <c r="F7" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7" s="70" t="s">
         <v>129</v>
-      </c>
-      <c r="G7" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="70" t="s">
-        <v>130</v>
-      </c>
-      <c r="I7" s="70" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -5250,7 +5247,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C8" s="67">
         <v>45672</v>
@@ -5262,16 +5259,16 @@
         <v>54</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G8" s="70" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H8" s="70" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I8" s="70" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -5279,7 +5276,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C9" s="75">
         <v>45679</v>
@@ -5291,16 +5288,16 @@
         <v>54</v>
       </c>
       <c r="F9" s="78" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G9" s="79" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="H9" s="70" t="s">
-        <v>145</v>
-      </c>
       <c r="I9" s="70" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -5319,19 +5316,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F50FC49184C87E449886FB52439922C9" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85b7e58c3d8889ba0673e7b34a193a6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b67b99c0-208c-4860-83e0-51466af787c4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d43477c1ade21a66d9a75ba2d5aa042" ns2:_="">
     <xsd:import namespace="b67b99c0-208c-4860-83e0-51466af787c4"/>
@@ -5463,6 +5447,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5470,22 +5467,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70CF7EF0-982B-4AD0-BBEC-EE46AE901B4A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03F37AD2-F175-417F-8B4C-43FA547649D7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05F2658D-0A1D-482D-8A15-ACBD3F9F55F6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5503,6 +5484,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03F37AD2-F175-417F-8B4C-43FA547649D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70CF7EF0-982B-4AD0-BBEC-EE46AE901B4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4268A99-3466-42F2-ADC1-424A10F38D2D}">
   <ds:schemaRefs>
